--- a/Code/Results/Cases/Case_8_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015395412722268</v>
+        <v>1.011637058542316</v>
       </c>
       <c r="D2">
-        <v>1.030168188923961</v>
+        <v>1.026925975912642</v>
       </c>
       <c r="E2">
-        <v>1.019423036539188</v>
+        <v>1.016256409838066</v>
       </c>
       <c r="F2">
-        <v>1.023291534223457</v>
+        <v>1.021663441030898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047704807372609</v>
+        <v>1.045941187377943</v>
       </c>
       <c r="J2">
-        <v>1.037125201922074</v>
+        <v>1.033475192162782</v>
       </c>
       <c r="K2">
-        <v>1.041222642693212</v>
+        <v>1.038022513573553</v>
       </c>
       <c r="L2">
-        <v>1.030618250287041</v>
+        <v>1.02749381911744</v>
       </c>
       <c r="M2">
-        <v>1.034435644283411</v>
+        <v>1.032828999399805</v>
       </c>
       <c r="N2">
-        <v>1.038598038668737</v>
+        <v>1.028366416442744</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035825877688001</v>
+        <v>1.034554316526017</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040218260541641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037964259126116</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021965201038489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019997243925649</v>
+        <v>1.015632226874394</v>
       </c>
       <c r="D3">
-        <v>1.033264715044102</v>
+        <v>1.02948474168641</v>
       </c>
       <c r="E3">
-        <v>1.023152508937574</v>
+        <v>1.019446934615754</v>
       </c>
       <c r="F3">
-        <v>1.026681174473862</v>
+        <v>1.024792888362082</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049006298931995</v>
+        <v>1.046925588254663</v>
       </c>
       <c r="J3">
-        <v>1.039957220951563</v>
+        <v>1.03570562678751</v>
       </c>
       <c r="K3">
-        <v>1.043488949481236</v>
+        <v>1.039753762820918</v>
       </c>
       <c r="L3">
-        <v>1.033497477548718</v>
+        <v>1.029836890948697</v>
       </c>
       <c r="M3">
-        <v>1.036983677642899</v>
+        <v>1.035118070812626</v>
       </c>
       <c r="N3">
-        <v>1.041434079490075</v>
+        <v>1.029616950002418</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037842485577997</v>
+        <v>1.036365975857187</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041818073308059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039185460725614</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022348724861503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022911275063151</v>
+        <v>1.01816696864421</v>
       </c>
       <c r="D4">
-        <v>1.03522921602588</v>
+        <v>1.031111790049556</v>
       </c>
       <c r="E4">
-        <v>1.025519208189035</v>
+        <v>1.021476324415857</v>
       </c>
       <c r="F4">
-        <v>1.028836894055016</v>
+        <v>1.026786334177654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049821228126026</v>
+        <v>1.047541388316637</v>
       </c>
       <c r="J4">
-        <v>1.041746526683301</v>
+        <v>1.037117107470999</v>
       </c>
       <c r="K4">
-        <v>1.04492026456306</v>
+        <v>1.040848681748249</v>
       </c>
       <c r="L4">
-        <v>1.035319094014844</v>
+        <v>1.031322278811395</v>
       </c>
       <c r="M4">
-        <v>1.038599308113248</v>
+        <v>1.036571873163203</v>
       </c>
       <c r="N4">
-        <v>1.043225926241188</v>
+        <v>1.030408315886984</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039121152364207</v>
+        <v>1.037516568661113</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042831023847489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039960638044758</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022588644208108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024127167540433</v>
+        <v>1.019225259510254</v>
       </c>
       <c r="D5">
-        <v>1.036052295917532</v>
+        <v>1.031794483550685</v>
       </c>
       <c r="E5">
-        <v>1.02650872645146</v>
+        <v>1.022325563883155</v>
       </c>
       <c r="F5">
-        <v>1.029736852325607</v>
+        <v>1.027618951312975</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050161243570382</v>
+        <v>1.04779843824489</v>
       </c>
       <c r="J5">
-        <v>1.04249412980629</v>
+        <v>1.037707358903487</v>
       </c>
       <c r="K5">
-        <v>1.045520039519955</v>
+        <v>1.041308371296221</v>
       </c>
       <c r="L5">
-        <v>1.036080553116276</v>
+        <v>1.031943766003322</v>
       </c>
       <c r="M5">
-        <v>1.039273207618062</v>
+        <v>1.037178547686643</v>
       </c>
       <c r="N5">
-        <v>1.043974591046363</v>
+        <v>1.030739246951691</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039654499463259</v>
+        <v>1.03799671270669</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043262252077756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0402935468555</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022689491088701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024337221298071</v>
+        <v>1.019407609772056</v>
       </c>
       <c r="D6">
-        <v>1.036197627584574</v>
+        <v>1.031915251682424</v>
       </c>
       <c r="E6">
-        <v>1.026680741944968</v>
+        <v>1.022472855708807</v>
       </c>
       <c r="F6">
-        <v>1.029890372532572</v>
+        <v>1.027760632811829</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050222574965239</v>
+        <v>1.047845139498714</v>
       </c>
       <c r="J6">
-        <v>1.042625667671285</v>
+        <v>1.037811244560397</v>
       </c>
       <c r="K6">
-        <v>1.045627847716032</v>
+        <v>1.041391669275695</v>
       </c>
       <c r="L6">
-        <v>1.036214271273786</v>
+        <v>1.032052816957422</v>
       </c>
       <c r="M6">
-        <v>1.039388798304926</v>
+        <v>1.037282321378361</v>
       </c>
       <c r="N6">
-        <v>1.044106315710214</v>
+        <v>1.030797491518594</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039745981843433</v>
+        <v>1.038078842907677</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043347186558081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040362044557938</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022708653424263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02294582670263</v>
+        <v>1.018227430005787</v>
       </c>
       <c r="D7">
-        <v>1.035260905915795</v>
+        <v>1.031163397606974</v>
       </c>
       <c r="E7">
-        <v>1.025550050736465</v>
+        <v>1.02153224878806</v>
       </c>
       <c r="F7">
-        <v>1.028856839949376</v>
+        <v>1.026817488992262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049838262924891</v>
+        <v>1.047572821407851</v>
       </c>
       <c r="J7">
-        <v>1.041774363942854</v>
+        <v>1.037170171139792</v>
       </c>
       <c r="K7">
-        <v>1.044948738311681</v>
+        <v>1.040896831677627</v>
       </c>
       <c r="L7">
-        <v>1.035346685499626</v>
+        <v>1.031374646233154</v>
       </c>
       <c r="M7">
-        <v>1.038616140756139</v>
+        <v>1.036599779237625</v>
       </c>
       <c r="N7">
-        <v>1.043253803032843</v>
+        <v>1.030490014609216</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039134474297885</v>
+        <v>1.037538654539542</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042871185408551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040016765982192</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022605327332835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016987394753508</v>
+        <v>1.013117447797158</v>
       </c>
       <c r="D8">
-        <v>1.031249057492439</v>
+        <v>1.027898317678289</v>
       </c>
       <c r="E8">
-        <v>1.02071577733087</v>
+        <v>1.017457307144008</v>
       </c>
       <c r="F8">
-        <v>1.024455123093193</v>
+        <v>1.022779475874505</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048166259512596</v>
+        <v>1.046347777408249</v>
       </c>
       <c r="J8">
-        <v>1.038114047985359</v>
+        <v>1.034351864753765</v>
       </c>
       <c r="K8">
-        <v>1.042021744921836</v>
+        <v>1.038713197164327</v>
       </c>
       <c r="L8">
-        <v>1.031622265295449</v>
+        <v>1.028405888443512</v>
       </c>
       <c r="M8">
-        <v>1.035313717964491</v>
+        <v>1.033659478112726</v>
       </c>
       <c r="N8">
-        <v>1.039588289006844</v>
+        <v>1.029015539765808</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036520818338052</v>
+        <v>1.035211589920259</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040806135578287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038477792830376</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022133499779896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005944707708124</v>
+        <v>1.003585938631665</v>
       </c>
       <c r="D9">
-        <v>1.023832265797928</v>
+        <v>1.021810515279742</v>
       </c>
       <c r="E9">
-        <v>1.011794384217926</v>
+        <v>1.009877812969886</v>
       </c>
       <c r="F9">
-        <v>1.016383329714409</v>
+        <v>1.015358664531727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044983693134293</v>
+        <v>1.043950294583986</v>
       </c>
       <c r="J9">
-        <v>1.031289275461374</v>
+        <v>1.029012700558206</v>
       </c>
       <c r="K9">
-        <v>1.036550162583366</v>
+        <v>1.034559372552549</v>
       </c>
       <c r="L9">
-        <v>1.024698960747141</v>
+        <v>1.02281263694014</v>
       </c>
       <c r="M9">
-        <v>1.029216075724508</v>
+        <v>1.028207377589688</v>
       </c>
       <c r="N9">
-        <v>1.032753824523062</v>
+        <v>1.026041344889039</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031694900015344</v>
+        <v>1.030896572705</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036934194147666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035537310517758</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021198557888928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.998375547235409</v>
+        <v>0.9972311101798342</v>
       </c>
       <c r="D10">
-        <v>1.018793503970649</v>
+        <v>1.017817370957135</v>
       </c>
       <c r="E10">
-        <v>1.005732049551484</v>
+        <v>1.004901492953959</v>
       </c>
       <c r="F10">
-        <v>1.011129042440615</v>
+        <v>1.010631272477225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04279762490809</v>
+        <v>1.042394053253076</v>
       </c>
       <c r="J10">
-        <v>1.026653764751819</v>
+        <v>1.025555017594106</v>
       </c>
       <c r="K10">
-        <v>1.032831528841388</v>
+        <v>1.031872210374801</v>
       </c>
       <c r="L10">
-        <v>1.019998575617462</v>
+        <v>1.019182809798953</v>
       </c>
       <c r="M10">
-        <v>1.025300224429876</v>
+        <v>1.024811192897784</v>
       </c>
       <c r="N10">
-        <v>1.028111730856599</v>
+        <v>1.024335518775335</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.028647780261469</v>
+        <v>1.028260762705459</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034321698357066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033655836347333</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020610135493432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963929387002235</v>
+        <v>0.995704766555408</v>
       </c>
       <c r="D11">
-        <v>1.017636407656457</v>
+        <v>1.017038100126918</v>
       </c>
       <c r="E11">
-        <v>1.004325227074396</v>
+        <v>1.003908770588584</v>
       </c>
       <c r="F11">
-        <v>1.011552494857739</v>
+        <v>1.011255356962256</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042537175850701</v>
+        <v>1.04236914895826</v>
       </c>
       <c r="J11">
-        <v>1.025916549367661</v>
+        <v>1.025257330424148</v>
       </c>
       <c r="K11">
-        <v>1.032233218913744</v>
+        <v>1.031645700242014</v>
       </c>
       <c r="L11">
-        <v>1.019166034319613</v>
+        <v>1.018757347775988</v>
       </c>
       <c r="M11">
-        <v>1.02625978769821</v>
+        <v>1.025968090054405</v>
       </c>
       <c r="N11">
-        <v>1.027373468542036</v>
+        <v>1.024612402349473</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029847771589258</v>
+        <v>1.029617042096504</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033931557803239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033531808260674</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020677027082787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9961316815628048</v>
+        <v>0.995498681209477</v>
       </c>
       <c r="D12">
-        <v>1.017577846748866</v>
+        <v>1.017020874153066</v>
       </c>
       <c r="E12">
-        <v>1.00424960455206</v>
+        <v>1.003878612120351</v>
       </c>
       <c r="F12">
-        <v>1.012632056866531</v>
+        <v>1.012360214969878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04269304688214</v>
+        <v>1.04254710252025</v>
       </c>
       <c r="J12">
-        <v>1.026100662672611</v>
+        <v>1.025494774265501</v>
       </c>
       <c r="K12">
-        <v>1.032375857387117</v>
+        <v>1.031829088161131</v>
       </c>
       <c r="L12">
-        <v>1.019295839218404</v>
+        <v>1.018931879394065</v>
       </c>
       <c r="M12">
-        <v>1.027521183183379</v>
+        <v>1.027254383058443</v>
       </c>
       <c r="N12">
-        <v>1.027557843308997</v>
+        <v>1.024938059698607</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031174505820549</v>
+        <v>1.030963542603775</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034032408055294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033661467163324</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020792923576831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.997193284231542</v>
+        <v>0.9962777036768525</v>
       </c>
       <c r="D13">
-        <v>1.018379245186376</v>
+        <v>1.017581206000041</v>
       </c>
       <c r="E13">
-        <v>1.005206650913778</v>
+        <v>1.004569903750018</v>
       </c>
       <c r="F13">
-        <v>1.014315359590696</v>
+        <v>1.013923871984561</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043195201780425</v>
+        <v>1.042890787718758</v>
       </c>
       <c r="J13">
-        <v>1.027023848671666</v>
+        <v>1.026147236830288</v>
       </c>
       <c r="K13">
-        <v>1.033119718932261</v>
+        <v>1.032336225053743</v>
       </c>
       <c r="L13">
-        <v>1.020191073786486</v>
+        <v>1.019566330642664</v>
       </c>
       <c r="M13">
-        <v>1.029130213688409</v>
+        <v>1.028745932415966</v>
       </c>
       <c r="N13">
-        <v>1.028482340338062</v>
+        <v>1.025260959736196</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032725122806417</v>
+        <v>1.032421342484608</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034555848837577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034017284554916</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02095450258098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9985200658884509</v>
+        <v>0.9972663386293132</v>
       </c>
       <c r="D14">
-        <v>1.019320081486197</v>
+        <v>1.018236266290095</v>
       </c>
       <c r="E14">
-        <v>1.006330880510303</v>
+        <v>1.00538000936116</v>
       </c>
       <c r="F14">
-        <v>1.015737693039187</v>
+        <v>1.015202950271486</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043696852120562</v>
+        <v>1.043207585853297</v>
       </c>
       <c r="J14">
-        <v>1.027990283971377</v>
+        <v>1.02678910226523</v>
       </c>
       <c r="K14">
-        <v>1.033903124185268</v>
+        <v>1.032838806326046</v>
       </c>
       <c r="L14">
-        <v>1.021151198742553</v>
+        <v>1.020218011512613</v>
       </c>
       <c r="M14">
-        <v>1.030385387454037</v>
+        <v>1.029860346155579</v>
       </c>
       <c r="N14">
-        <v>1.02945014808675</v>
+        <v>1.025485472584077</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033891464107467</v>
+        <v>1.03347646709721</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03511116802247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034374184436641</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021090056979889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9991498763814352</v>
+        <v>0.9977430989138533</v>
       </c>
       <c r="D15">
-        <v>1.019752799376968</v>
+        <v>1.01854042655839</v>
       </c>
       <c r="E15">
-        <v>1.006847131143299</v>
+        <v>1.005755567758219</v>
       </c>
       <c r="F15">
-        <v>1.016266686552812</v>
+        <v>1.015666977247619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043905061375129</v>
+        <v>1.043333813316209</v>
       </c>
       <c r="J15">
-        <v>1.028406761061373</v>
+        <v>1.027058410739691</v>
       </c>
       <c r="K15">
-        <v>1.03424166530575</v>
+        <v>1.033050933285442</v>
       </c>
       <c r="L15">
-        <v>1.021569849013286</v>
+        <v>1.020498423683158</v>
       </c>
       <c r="M15">
-        <v>1.030817960349092</v>
+        <v>1.03022904308149</v>
       </c>
       <c r="N15">
-        <v>1.029867216621985</v>
+        <v>1.025556435075881</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034271057733905</v>
+        <v>1.033805584886244</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035356398881358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034530610056751</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021139891824921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002123946549478</v>
+        <v>1.000061062831316</v>
       </c>
       <c r="D16">
-        <v>1.021711451845201</v>
+        <v>1.019950155863264</v>
       </c>
       <c r="E16">
-        <v>1.009200025960684</v>
+        <v>1.007514283745311</v>
       </c>
       <c r="F16">
-        <v>1.018197470921997</v>
+        <v>1.017317846025674</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044734137436753</v>
+        <v>1.043820975850902</v>
       </c>
       <c r="J16">
-        <v>1.030177032121909</v>
+        <v>1.028195480749673</v>
       </c>
       <c r="K16">
-        <v>1.035663900321054</v>
+        <v>1.033932662118122</v>
       </c>
       <c r="L16">
-        <v>1.023368938675644</v>
+        <v>1.02171289496281</v>
       </c>
       <c r="M16">
-        <v>1.032210021441581</v>
+        <v>1.031345525391594</v>
       </c>
       <c r="N16">
-        <v>1.031640001670479</v>
+        <v>1.025790349220997</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035332464780654</v>
+        <v>1.034649158163829</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036365130851917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035157491417287</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021304989889921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003723534184956</v>
+        <v>1.001359666524377</v>
       </c>
       <c r="D17">
-        <v>1.022731870958281</v>
+        <v>1.020718006817321</v>
       </c>
       <c r="E17">
-        <v>1.010429140182546</v>
+        <v>1.008475009557927</v>
       </c>
       <c r="F17">
-        <v>1.018941725329926</v>
+        <v>1.017932272056889</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0451110408163</v>
+        <v>1.044044981696786</v>
       </c>
       <c r="J17">
-        <v>1.031039370665368</v>
+        <v>1.028765694838629</v>
       </c>
       <c r="K17">
-        <v>1.036352731461962</v>
+        <v>1.034372270766341</v>
       </c>
       <c r="L17">
-        <v>1.024256746847882</v>
+        <v>1.022336055196539</v>
       </c>
       <c r="M17">
-        <v>1.032625593210821</v>
+        <v>1.031633023068574</v>
       </c>
       <c r="N17">
-        <v>1.032503564833582</v>
+        <v>1.025922629925627</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035531363283023</v>
+        <v>1.034746746934252</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036854743814122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035471149301547</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.0213682768804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004227769924211</v>
+        <v>1.001808213238107</v>
       </c>
       <c r="D18">
-        <v>1.022985787586813</v>
+        <v>1.020925876528111</v>
       </c>
       <c r="E18">
-        <v>1.010744822109234</v>
+        <v>1.008745898470411</v>
       </c>
       <c r="F18">
-        <v>1.018558417712175</v>
+        <v>1.01752189403437</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045099318922025</v>
+        <v>1.044010418845836</v>
       </c>
       <c r="J18">
-        <v>1.031132003206322</v>
+        <v>1.028803082074692</v>
       </c>
       <c r="K18">
-        <v>1.036419210969238</v>
+        <v>1.034392920279141</v>
       </c>
       <c r="L18">
-        <v>1.024380628061922</v>
+        <v>1.022415354885334</v>
       </c>
       <c r="M18">
-        <v>1.032064317448686</v>
+        <v>1.031044878974359</v>
       </c>
       <c r="N18">
-        <v>1.032596328923369</v>
+        <v>1.025861498446318</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03484874944055</v>
+        <v>1.034042724564516</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036890120468151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035472972008872</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021322645746108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003732064570368</v>
+        <v>1.001453922904162</v>
       </c>
       <c r="D19">
-        <v>1.02255463403778</v>
+        <v>1.020616328724008</v>
       </c>
       <c r="E19">
-        <v>1.010230839206971</v>
+        <v>1.008365110732654</v>
       </c>
       <c r="F19">
-        <v>1.01705624906513</v>
+        <v>1.016075403942129</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044744240610135</v>
+        <v>1.043735884548759</v>
       </c>
       <c r="J19">
-        <v>1.030521009250783</v>
+        <v>1.028327808357234</v>
       </c>
       <c r="K19">
-        <v>1.035932561095737</v>
+        <v>1.034025751917386</v>
       </c>
       <c r="L19">
-        <v>1.023811672302877</v>
+        <v>1.02197721958839</v>
       </c>
       <c r="M19">
-        <v>1.030523923328817</v>
+        <v>1.029559219352356</v>
       </c>
       <c r="N19">
-        <v>1.031984467286331</v>
+        <v>1.025571924994736</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033303040059481</v>
+        <v>1.032540038829594</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036552436812155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035220402341002</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021179314771342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000397951952496</v>
+        <v>0.9988230543492311</v>
       </c>
       <c r="D20">
-        <v>1.020160320201399</v>
+        <v>1.018821548089524</v>
       </c>
       <c r="E20">
-        <v>1.007358880716462</v>
+        <v>1.006135706552404</v>
       </c>
       <c r="F20">
-        <v>1.012526108452668</v>
+        <v>1.011841357618453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043406168796776</v>
+        <v>1.042774848462437</v>
       </c>
       <c r="J20">
-        <v>1.027913541833808</v>
+        <v>1.026399420788124</v>
       </c>
       <c r="K20">
-        <v>1.033857701746154</v>
+        <v>1.032541324570315</v>
       </c>
       <c r="L20">
-        <v>1.021273555614291</v>
+        <v>1.020071518194075</v>
       </c>
       <c r="M20">
-        <v>1.026352220159355</v>
+        <v>1.025679138391385</v>
       </c>
       <c r="N20">
-        <v>1.029373296966543</v>
+        <v>1.024613732810455</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029469658846175</v>
+        <v>1.028936978259793</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035089368270471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034175188158174</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.0207531322154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9944190430143575</v>
+        <v>0.9943181305400074</v>
       </c>
       <c r="D21">
-        <v>1.016157541805433</v>
+        <v>1.016054768227074</v>
       </c>
       <c r="E21">
-        <v>1.002548989540861</v>
+        <v>1.002682320003806</v>
       </c>
       <c r="F21">
-        <v>1.008043210566628</v>
+        <v>1.007999227040246</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041601035355302</v>
+        <v>1.041757885043153</v>
       </c>
       <c r="J21">
-        <v>1.024151969245259</v>
+        <v>1.024055344295355</v>
       </c>
       <c r="K21">
-        <v>1.030839136771008</v>
+        <v>1.030738230793147</v>
       </c>
       <c r="L21">
-        <v>1.017482230917744</v>
+        <v>1.017613052580612</v>
       </c>
       <c r="M21">
-        <v>1.022873787442117</v>
+        <v>1.022830619992414</v>
       </c>
       <c r="N21">
-        <v>1.02560638251346</v>
+        <v>1.024109906072734</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026675323599564</v>
+        <v>1.026641158784417</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032958373246748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032903899139417</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020396805155469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9906289959512574</v>
+        <v>0.9914595471065047</v>
       </c>
       <c r="D22">
-        <v>1.0136267705465</v>
+        <v>1.014308350662767</v>
       </c>
       <c r="E22">
-        <v>0.999514276773826</v>
+        <v>1.000507087412086</v>
       </c>
       <c r="F22">
-        <v>1.005333352086441</v>
+        <v>1.005695739396225</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04045849447945</v>
+        <v>1.041116351435891</v>
       </c>
       <c r="J22">
-        <v>1.021786074015512</v>
+        <v>1.022579220420416</v>
       </c>
       <c r="K22">
-        <v>1.028933027092031</v>
+        <v>1.029601587296485</v>
       </c>
       <c r="L22">
-        <v>1.01509536208109</v>
+        <v>1.016068505490601</v>
       </c>
       <c r="M22">
-        <v>1.020799889495689</v>
+        <v>1.021155200760333</v>
       </c>
       <c r="N22">
-        <v>1.023237127441115</v>
+        <v>1.02375524573673</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025033938163391</v>
+        <v>1.025315149356642</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031597129688968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03208540057585</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020174863717904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9926285155599278</v>
+        <v>0.9929130895157647</v>
       </c>
       <c r="D23">
-        <v>1.014953436681824</v>
+        <v>1.015176414736868</v>
       </c>
       <c r="E23">
-        <v>1.001111256147739</v>
+        <v>1.001596932756982</v>
       </c>
       <c r="F23">
-        <v>1.006766996442091</v>
+        <v>1.006891092079598</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041055012047004</v>
+        <v>1.041416694554949</v>
       </c>
       <c r="J23">
-        <v>1.023028242263845</v>
+        <v>1.023300385947313</v>
       </c>
       <c r="K23">
-        <v>1.029928281505529</v>
+        <v>1.030147110198977</v>
       </c>
       <c r="L23">
-        <v>1.016348429036579</v>
+        <v>1.016824740644326</v>
       </c>
       <c r="M23">
-        <v>1.021895845576173</v>
+        <v>1.022017582265695</v>
       </c>
       <c r="N23">
-        <v>1.024481059710839</v>
+        <v>1.023839098418029</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025901332516858</v>
+        <v>1.025997680942151</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032291154713326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032460503832137</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020270025312013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000333635929327</v>
+        <v>0.998777277384827</v>
       </c>
       <c r="D24">
-        <v>1.020091390165277</v>
+        <v>1.01876826210089</v>
       </c>
       <c r="E24">
-        <v>1.007286525164939</v>
+        <v>1.006080829882923</v>
       </c>
       <c r="F24">
-        <v>1.012310017867789</v>
+        <v>1.011632817818254</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043346985225104</v>
+        <v>1.042726267207733</v>
       </c>
       <c r="J24">
-        <v>1.02781884885695</v>
+        <v>1.026322476391418</v>
       </c>
       <c r="K24">
-        <v>1.033774631834705</v>
+        <v>1.032473612050622</v>
       </c>
       <c r="L24">
-        <v>1.021186878258283</v>
+        <v>1.020001994269899</v>
       </c>
       <c r="M24">
-        <v>1.026124350308731</v>
+        <v>1.025458682068561</v>
       </c>
       <c r="N24">
-        <v>1.029278469514796</v>
+        <v>1.024562664901349</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029247971963097</v>
+        <v>1.028721131586046</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035003199846353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034097177606371</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020725622809842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00889472281609</v>
+        <v>1.006082238854809</v>
       </c>
       <c r="D25">
-        <v>1.025822857465054</v>
+        <v>1.023407871883385</v>
       </c>
       <c r="E25">
-        <v>1.01417738156802</v>
+        <v>1.011854874755575</v>
       </c>
       <c r="F25">
-        <v>1.018521330986001</v>
+        <v>1.017300614793294</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045853971752661</v>
+        <v>1.044583953042117</v>
       </c>
       <c r="J25">
-        <v>1.033126407672753</v>
+        <v>1.030406630951085</v>
       </c>
       <c r="K25">
-        <v>1.038033108761167</v>
+        <v>1.035653361849919</v>
       </c>
       <c r="L25">
-        <v>1.026559527466619</v>
+        <v>1.024271904834871</v>
       </c>
       <c r="M25">
-        <v>1.030838773289878</v>
+        <v>1.029636168827155</v>
       </c>
       <c r="N25">
-        <v>1.034593565672904</v>
+        <v>1.026756941251917</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032979171103463</v>
+        <v>1.032027379588074</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038011294762311</v>
+        <v>1.036342243296217</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021446535694419</v>
       </c>
     </row>
   </sheetData>
